--- a/reports/corpus_wicaksono-unigram_trigram-fold-2.xlsx
+++ b/reports/corpus_wicaksono-unigram_trigram-fold-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,125 +451,130 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CDC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDO</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CDP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DT</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FW</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>JJ</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NEG</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>NNG</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>NNP</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>PRL</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>PRN</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>PRP</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>RB</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SC</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>UH</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>VBI</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>VBT</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>WP</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>macro avg</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -582,88 +587,91 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6097560975609756</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8972431077694235</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="H2" t="n">
-        <v>0.90625</v>
+        <v>0.993734335839599</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8590381426202321</v>
+        <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3780487804878049</v>
+        <v>0.9950248756218906</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75</v>
+        <v>0.8475609756097561</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6</v>
+        <v>0.9930555555555556</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9932835820895523</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.9824626865671642</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3951219512195122</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.5414634146341464</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8524590163934426</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5971563981042654</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8815165876777251</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8288288288288288</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4060913705583756</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3933717579250721</v>
+        <v>0.8527918781725888</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.8112391930835735</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7899086014774008</v>
+        <v>0.875</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.5953418412196312</v>
+        <v>0.9189933642168524</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8935776939943845</v>
+        <v>0.7960865845933797</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9388231200497839</v>
       </c>
     </row>
     <row r="3">
@@ -679,82 +687,85 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.99860529986053</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9974842767295597</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9980732177263969</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9788732394366197</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6192137706443359</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.8256506741925368</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9346153846153846</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9921259842519685</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9945945945945946</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.986046511627907</v>
       </c>
       <c r="X3" t="n">
-        <v>0.975609756097561</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9963503649635036</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.987719298245614</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7899086014774008</v>
+        <v>0.875</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8410896699180203</v>
+        <v>0.9189933642168524</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7899086014774008</v>
+        <v>0.8476205051573775</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.9189933642168524</v>
       </c>
     </row>
     <row r="4">
@@ -764,88 +775,91 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9913043478260869</v>
+        <v>0.9975308641975309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9320388349514563</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7575757575757575</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9801324503311257</v>
+        <v>0.975</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9452145214521451</v>
+        <v>0.9934640522875817</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9508196721311475</v>
+        <v>0.9956057752667922</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9233511586452762</v>
+        <v>0.625</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5486725663716815</v>
+        <v>0.9966777408637874</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9084967320261439</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.9965156794425087</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7628600085972203</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2745098039215686</v>
+        <v>0.897256772874425</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5554285714285714</v>
+        <v>0.6165413533834586</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.676829268292683</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9203539823008848</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7455621301775148</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.9276807980049876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9041769041769041</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.9702517162471395</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5734767025089607</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5640495867768595</v>
+        <v>0.910569105691057</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.8908227848101267</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7899086014774008</v>
+        <v>0.875</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6640615554236732</v>
+        <v>0.9189933642168524</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8041881766969537</v>
+        <v>0.8169455455122081</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9229395746121557</v>
       </c>
     </row>
     <row r="5">
@@ -855,87 +869,90 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C5" t="n">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D5" t="n">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>717</v>
+        <v>76</v>
       </c>
       <c r="H5" t="n">
-        <v>145</v>
+        <v>795</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="J5" t="n">
-        <v>519</v>
+        <v>24</v>
       </c>
       <c r="K5" t="n">
-        <v>124</v>
+        <v>601</v>
       </c>
       <c r="L5" t="n">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="N5" t="n">
-        <v>4299</v>
+        <v>50</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>3189</v>
       </c>
       <c r="P5" t="n">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="V5" t="n">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="X5" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7899086014774008</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
+        <v>0.9189933642168524</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7987</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>7987</v>
       </c>
     </row>
